--- a/project_files/ConvLSTM_layer_1_no_Attention.xlsx
+++ b/project_files/ConvLSTM_layer_1_no_Attention.xlsx
@@ -415,16 +415,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>16.73525215079777</v>
+        <v>17.95394345800831</v>
       </c>
       <c r="C2">
-        <v>8.686976432800293</v>
+        <v>10.2731294631958</v>
       </c>
       <c r="D2">
-        <v>5.78</v>
+        <v>6.62</v>
       </c>
       <c r="E2">
-        <v>0.9106311937012187</v>
+        <v>0.8971615530241815</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -432,16 +432,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>14.79567616167151</v>
+        <v>14.76765859012101</v>
       </c>
       <c r="C3">
-        <v>10.09345626831055</v>
+        <v>11.66067790985107</v>
       </c>
       <c r="D3">
-        <v>6.52</v>
+        <v>7.37</v>
       </c>
       <c r="E3">
-        <v>0.9783812514941523</v>
+        <v>0.9784206343157892</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -449,16 +449,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2.834720066519758</v>
+        <v>2.726859352544305</v>
       </c>
       <c r="C4">
-        <v>2.137239933013916</v>
+        <v>2.046060085296631</v>
       </c>
       <c r="D4">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="E4">
-        <v>0.9492959977733122</v>
+        <v>0.950580787580162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -466,16 +466,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.834720066519758</v>
+        <v>2.726793951578303</v>
       </c>
       <c r="C5">
-        <v>2.137239933013916</v>
+        <v>2.045955419540405</v>
       </c>
       <c r="D5">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="E5">
-        <v>0.9492959977733122</v>
+        <v>0.9505830174382446</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,16 +483,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>13.35628447896374</v>
+        <v>12.58189178361077</v>
       </c>
       <c r="C6">
-        <v>7.60949182510376</v>
+        <v>7.80219030380249</v>
       </c>
       <c r="D6">
-        <v>6.87</v>
+        <v>7.08</v>
       </c>
       <c r="E6">
-        <v>0.8394249474459888</v>
+        <v>0.8575114941443376</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -500,16 +500,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>8.151284295676682</v>
+        <v>8.57226495749314</v>
       </c>
       <c r="C7">
-        <v>5.127119541168213</v>
+        <v>6.120683193206787</v>
       </c>
       <c r="D7">
-        <v>2.83</v>
+        <v>3.33</v>
       </c>
       <c r="E7">
-        <v>0.9369227047467449</v>
+        <v>0.9302297024317419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -517,16 +517,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>12.09724568947347</v>
+        <v>9.167628798421353</v>
       </c>
       <c r="C8">
-        <v>8.062965393066406</v>
+        <v>6.711126804351807</v>
       </c>
       <c r="D8">
-        <v>5.73</v>
+        <v>5.1</v>
       </c>
       <c r="E8">
-        <v>0.8836521966287282</v>
+        <v>0.9331439011214323</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -534,16 +534,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>16.39015672740283</v>
+        <v>13.90782283503576</v>
       </c>
       <c r="C9">
-        <v>11.05117511749268</v>
+        <v>9.660414695739746</v>
       </c>
       <c r="D9">
-        <v>10.45</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E9">
-        <v>0.7931721435257195</v>
+        <v>0.8511412152427479</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -551,16 +551,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>72.15886201422178</v>
+        <v>60.14815083465264</v>
       </c>
       <c r="C10">
-        <v>45.79382705688477</v>
+        <v>33.17142105102539</v>
       </c>
       <c r="D10">
-        <v>40.09</v>
+        <v>28.94</v>
       </c>
       <c r="E10">
-        <v>-1.228923561927001</v>
+        <v>-0.5487346892198913</v>
       </c>
     </row>
   </sheetData>
